--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Serping1-Selp.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Serping1-Selp.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>22.63233633333333</v>
+        <v>24.290427</v>
       </c>
       <c r="H2">
-        <v>67.897009</v>
+        <v>72.871281</v>
       </c>
       <c r="I2">
-        <v>0.0374450040810979</v>
+        <v>0.04034614150728122</v>
       </c>
       <c r="J2">
-        <v>0.0374450040810979</v>
+        <v>0.04034614150728123</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>35.234003</v>
+        <v>44.40220133333333</v>
       </c>
       <c r="N2">
-        <v>105.702009</v>
+        <v>133.206604</v>
       </c>
       <c r="O2">
-        <v>0.9905698604484152</v>
+        <v>0.9893265572082102</v>
       </c>
       <c r="P2">
-        <v>0.9905698604484153</v>
+        <v>0.9893265572082101</v>
       </c>
       <c r="Q2">
-        <v>797.4278062656756</v>
+        <v>1078.548430126636</v>
       </c>
       <c r="R2">
-        <v>7176.850256391081</v>
+        <v>9706.935871139724</v>
       </c>
       <c r="S2">
-        <v>0.03709189246710349</v>
+        <v>0.0399155092740338</v>
       </c>
       <c r="T2">
-        <v>0.03709189246710349</v>
+        <v>0.0399155092740338</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>22.63233633333333</v>
+        <v>24.290427</v>
       </c>
       <c r="H3">
-        <v>67.897009</v>
+        <v>72.871281</v>
       </c>
       <c r="I3">
-        <v>0.0374450040810979</v>
+        <v>0.04034614150728122</v>
       </c>
       <c r="J3">
-        <v>0.0374450040810979</v>
+        <v>0.04034614150728123</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,28 +620,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.1289146666666666</v>
+        <v>0.401961</v>
       </c>
       <c r="N3">
-        <v>0.386744</v>
+        <v>1.205883</v>
       </c>
       <c r="O3">
-        <v>0.00362431096375152</v>
+        <v>0.008956103083191794</v>
       </c>
       <c r="P3">
-        <v>0.00362431096375152</v>
+        <v>0.008956103083191792</v>
       </c>
       <c r="Q3">
-        <v>2.917640094299555</v>
+        <v>9.763804327347</v>
       </c>
       <c r="R3">
-        <v>26.258760848696</v>
+        <v>87.874238946123</v>
       </c>
       <c r="S3">
-        <v>0.0001357123388288435</v>
+        <v>0.0003613442023482538</v>
       </c>
       <c r="T3">
-        <v>0.0001357123388288436</v>
+        <v>0.0003613442023482537</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>22.63233633333333</v>
+        <v>24.290427</v>
       </c>
       <c r="H4">
-        <v>67.897009</v>
+        <v>72.871281</v>
       </c>
       <c r="I4">
-        <v>0.0374450040810979</v>
+        <v>0.04034614150728122</v>
       </c>
       <c r="J4">
-        <v>0.0374450040810979</v>
+        <v>0.04034614150728123</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.20651</v>
+        <v>0.07707633333333333</v>
       </c>
       <c r="N4">
-        <v>0.61953</v>
+        <v>0.231229</v>
       </c>
       <c r="O4">
-        <v>0.005805828587833242</v>
+        <v>0.00171733970859806</v>
       </c>
       <c r="P4">
-        <v>0.005805828587833243</v>
+        <v>0.00171733970859806</v>
       </c>
       <c r="Q4">
-        <v>4.673803776196666</v>
+        <v>1.872217048261</v>
       </c>
       <c r="R4">
-        <v>42.06423398577</v>
+        <v>16.849953434349</v>
       </c>
       <c r="S4">
-        <v>0.0002173992751655706</v>
+        <v>6.928803089917043E-05</v>
       </c>
       <c r="T4">
-        <v>0.0002173992751655707</v>
+        <v>6.928803089917045E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -732,10 +732,10 @@
         <v>1655.512787</v>
       </c>
       <c r="I5">
-        <v>0.9130105136961889</v>
+        <v>0.9165963909899637</v>
       </c>
       <c r="J5">
-        <v>0.9130105136961888</v>
+        <v>0.9165963909899638</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>35.234003</v>
+        <v>44.40220133333333</v>
       </c>
       <c r="N5">
-        <v>105.702009</v>
+        <v>133.206604</v>
       </c>
       <c r="O5">
-        <v>0.9905698604484152</v>
+        <v>0.9893265572082102</v>
       </c>
       <c r="P5">
-        <v>0.9905698604484153</v>
+        <v>0.9893265572082101</v>
       </c>
       <c r="Q5">
-        <v>19443.44750123212</v>
+        <v>24502.80402609392</v>
       </c>
       <c r="R5">
-        <v>174991.0275110891</v>
+        <v>220525.2362348453</v>
       </c>
       <c r="S5">
-        <v>0.9044006971399697</v>
+        <v>0.9068131518475713</v>
       </c>
       <c r="T5">
-        <v>0.9044006971399697</v>
+        <v>0.9068131518475713</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,10 +794,10 @@
         <v>1655.512787</v>
       </c>
       <c r="I6">
-        <v>0.9130105136961889</v>
+        <v>0.9165963909899637</v>
       </c>
       <c r="J6">
-        <v>0.9130105136961888</v>
+        <v>0.9165963909899638</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,28 +806,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.1289146666666666</v>
+        <v>0.401961</v>
       </c>
       <c r="N6">
-        <v>0.386744</v>
+        <v>1.205883</v>
       </c>
       <c r="O6">
-        <v>0.00362431096375152</v>
+        <v>0.008956103083191794</v>
       </c>
       <c r="P6">
-        <v>0.00362431096375152</v>
+        <v>0.008956103083191792</v>
       </c>
       <c r="Q6">
-        <v>71.13995969950309</v>
+        <v>221.817191791769</v>
       </c>
       <c r="R6">
-        <v>640.2596372955279</v>
+        <v>1996.354726125921</v>
       </c>
       <c r="S6">
-        <v>0.003309034014809505</v>
+        <v>0.008209131763387684</v>
       </c>
       <c r="T6">
-        <v>0.003309034014809505</v>
+        <v>0.008209131763387684</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,40 +856,40 @@
         <v>1655.512787</v>
       </c>
       <c r="I7">
-        <v>0.9130105136961889</v>
+        <v>0.9165963909899637</v>
       </c>
       <c r="J7">
-        <v>0.9130105136961888</v>
+        <v>0.9165963909899638</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.20651</v>
+        <v>0.07707633333333333</v>
       </c>
       <c r="N7">
-        <v>0.61953</v>
+        <v>0.231229</v>
       </c>
       <c r="O7">
-        <v>0.005805828587833242</v>
+        <v>0.00171733970859806</v>
       </c>
       <c r="P7">
-        <v>0.005805828587833243</v>
+        <v>0.00171733970859806</v>
       </c>
       <c r="Q7">
-        <v>113.9599818811233</v>
+        <v>42.53361846946922</v>
       </c>
       <c r="R7">
-        <v>1025.63983693011</v>
+        <v>382.802566225223</v>
       </c>
       <c r="S7">
-        <v>0.005300782541409648</v>
+        <v>0.001574107379004738</v>
       </c>
       <c r="T7">
-        <v>0.005300782541409648</v>
+        <v>0.001574107379004738</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,22 +906,22 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.1065133333333333</v>
+        <v>0.741047</v>
       </c>
       <c r="H8">
-        <v>0.31954</v>
+        <v>2.223141</v>
       </c>
       <c r="I8">
-        <v>0.0001762253857761838</v>
+        <v>0.001230871203933394</v>
       </c>
       <c r="J8">
-        <v>0.0001762253857761838</v>
+        <v>0.001230871203933394</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>35.234003</v>
+        <v>44.40220133333333</v>
       </c>
       <c r="N8">
-        <v>105.702009</v>
+        <v>133.206604</v>
       </c>
       <c r="O8">
-        <v>0.9905698604484152</v>
+        <v>0.9893265572082102</v>
       </c>
       <c r="P8">
-        <v>0.9905698604484153</v>
+        <v>0.9893265572082101</v>
       </c>
       <c r="Q8">
-        <v>3.752891106206667</v>
+        <v>32.90411809146266</v>
       </c>
       <c r="R8">
-        <v>33.77601995586</v>
+        <v>296.137062823164</v>
       </c>
       <c r="S8">
-        <v>0.0001745635557957826</v>
+        <v>0.00121773357055415</v>
       </c>
       <c r="T8">
-        <v>0.0001745635557957825</v>
+        <v>0.00121773357055415</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,22 +968,22 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.1065133333333333</v>
+        <v>0.741047</v>
       </c>
       <c r="H9">
-        <v>0.31954</v>
+        <v>2.223141</v>
       </c>
       <c r="I9">
-        <v>0.0001762253857761838</v>
+        <v>0.001230871203933394</v>
       </c>
       <c r="J9">
-        <v>0.0001762253857761838</v>
+        <v>0.001230871203933394</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,28 +992,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.1289146666666666</v>
+        <v>0.401961</v>
       </c>
       <c r="N9">
-        <v>0.386744</v>
+        <v>1.205883</v>
       </c>
       <c r="O9">
-        <v>0.00362431096375152</v>
+        <v>0.008956103083191794</v>
       </c>
       <c r="P9">
-        <v>0.00362431096375152</v>
+        <v>0.008956103083191792</v>
       </c>
       <c r="Q9">
-        <v>0.01373113086222222</v>
+        <v>0.297871993167</v>
       </c>
       <c r="R9">
-        <v>0.12358017776</v>
+        <v>2.680847938503</v>
       </c>
       <c r="S9">
-        <v>6.386955977599642E-07</v>
+        <v>1.102380938455987E-05</v>
       </c>
       <c r="T9">
-        <v>6.386955977599641E-07</v>
+        <v>1.102380938455987E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>24</v>
       </c>
       <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.741047</v>
+      </c>
+      <c r="H10">
+        <v>2.223141</v>
+      </c>
+      <c r="I10">
+        <v>0.001230871203933394</v>
+      </c>
+      <c r="J10">
+        <v>0.001230871203933394</v>
+      </c>
+      <c r="K10">
         <v>2</v>
       </c>
-      <c r="F10">
+      <c r="L10">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G10">
-        <v>0.1065133333333333</v>
-      </c>
-      <c r="H10">
-        <v>0.31954</v>
-      </c>
-      <c r="I10">
-        <v>0.0001762253857761838</v>
-      </c>
-      <c r="J10">
-        <v>0.0001762253857761838</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M10">
-        <v>0.20651</v>
+        <v>0.07707633333333333</v>
       </c>
       <c r="N10">
-        <v>0.61953</v>
+        <v>0.231229</v>
       </c>
       <c r="O10">
-        <v>0.005805828587833242</v>
+        <v>0.00171733970859806</v>
       </c>
       <c r="P10">
-        <v>0.005805828587833243</v>
+        <v>0.00171733970859806</v>
       </c>
       <c r="Q10">
-        <v>0.02199606846666667</v>
+        <v>0.05711718558766667</v>
       </c>
       <c r="R10">
-        <v>0.1979646162</v>
+        <v>0.514054670289</v>
       </c>
       <c r="S10">
-        <v>1.02313438264131E-06</v>
+        <v>2.113823994684719E-06</v>
       </c>
       <c r="T10">
-        <v>1.02313438264131E-06</v>
+        <v>2.113823994684719E-06</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>29.30256466666667</v>
+        <v>24.947199</v>
       </c>
       <c r="H11">
-        <v>87.90769400000001</v>
+        <v>74.84159699999999</v>
       </c>
       <c r="I11">
-        <v>0.04848083898054929</v>
+        <v>0.04143703283043582</v>
       </c>
       <c r="J11">
-        <v>0.04848083898054929</v>
+        <v>0.04143703283043582</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>35.234003</v>
+        <v>44.40220133333333</v>
       </c>
       <c r="N11">
-        <v>105.702009</v>
+        <v>133.206604</v>
       </c>
       <c r="O11">
-        <v>0.9905698604484152</v>
+        <v>0.9893265572082102</v>
       </c>
       <c r="P11">
-        <v>0.9905698604484153</v>
+        <v>0.9893265572082101</v>
       </c>
       <c r="Q11">
-        <v>1032.446651373027</v>
+        <v>1107.710552700732</v>
       </c>
       <c r="R11">
-        <v>9292.019862357247</v>
+        <v>9969.394974306588</v>
       </c>
       <c r="S11">
-        <v>0.0480236579033848</v>
+        <v>0.04099475703105864</v>
       </c>
       <c r="T11">
-        <v>0.0480236579033848</v>
+        <v>0.04099475703105863</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>29.30256466666667</v>
+        <v>24.947199</v>
       </c>
       <c r="H12">
-        <v>87.90769400000001</v>
+        <v>74.84159699999999</v>
       </c>
       <c r="I12">
-        <v>0.04848083898054929</v>
+        <v>0.04143703283043582</v>
       </c>
       <c r="J12">
-        <v>0.04848083898054929</v>
+        <v>0.04143703283043582</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1178,28 +1178,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.1289146666666666</v>
+        <v>0.401961</v>
       </c>
       <c r="N12">
-        <v>0.386744</v>
+        <v>1.205883</v>
       </c>
       <c r="O12">
-        <v>0.00362431096375152</v>
+        <v>0.008956103083191794</v>
       </c>
       <c r="P12">
-        <v>0.00362431096375152</v>
+        <v>0.008956103083191792</v>
       </c>
       <c r="Q12">
-        <v>3.777530356481777</v>
+        <v>10.027801057239</v>
       </c>
       <c r="R12">
-        <v>33.997773208336</v>
+        <v>90.250209515151</v>
       </c>
       <c r="S12">
-        <v>0.0001757096362490769</v>
+        <v>0.0003711143374909858</v>
       </c>
       <c r="T12">
-        <v>0.0001757096362490769</v>
+        <v>0.0003711143374909857</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,46 +1222,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>29.30256466666667</v>
+        <v>24.947199</v>
       </c>
       <c r="H13">
-        <v>87.90769400000001</v>
+        <v>74.84159699999999</v>
       </c>
       <c r="I13">
-        <v>0.04848083898054929</v>
+        <v>0.04143703283043582</v>
       </c>
       <c r="J13">
-        <v>0.04848083898054929</v>
+        <v>0.04143703283043582</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.20651</v>
+        <v>0.07707633333333333</v>
       </c>
       <c r="N13">
-        <v>0.61953</v>
+        <v>0.231229</v>
       </c>
       <c r="O13">
-        <v>0.005805828587833242</v>
+        <v>0.00171733970859806</v>
       </c>
       <c r="P13">
-        <v>0.005805828587833243</v>
+        <v>0.00171733970859806</v>
       </c>
       <c r="Q13">
-        <v>6.051272629313334</v>
+        <v>1.922838625857</v>
       </c>
       <c r="R13">
-        <v>54.46145366382001</v>
+        <v>17.305547632713</v>
       </c>
       <c r="S13">
-        <v>0.0002814714409154133</v>
+        <v>7.116146188618892E-05</v>
       </c>
       <c r="T13">
-        <v>0.0002814714409154133</v>
+        <v>7.11614618861889E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.5363690000000001</v>
+        <v>0.234537</v>
       </c>
       <c r="H14">
-        <v>1.609107</v>
+        <v>0.7036110000000001</v>
       </c>
       <c r="I14">
-        <v>0.0008874178563878008</v>
+        <v>0.0003895634683858467</v>
       </c>
       <c r="J14">
-        <v>0.0008874178563878007</v>
+        <v>0.0003895634683858468</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>35.234003</v>
+        <v>44.40220133333333</v>
       </c>
       <c r="N14">
-        <v>105.702009</v>
+        <v>133.206604</v>
       </c>
       <c r="O14">
-        <v>0.9905698604484152</v>
+        <v>0.9893265572082102</v>
       </c>
       <c r="P14">
-        <v>0.9905698604484153</v>
+        <v>0.9893265572082101</v>
       </c>
       <c r="Q14">
-        <v>18.89842695510701</v>
+        <v>10.413959094116</v>
       </c>
       <c r="R14">
-        <v>170.085842595963</v>
+        <v>93.72563184704401</v>
       </c>
       <c r="S14">
-        <v>0.0008790493821614956</v>
+        <v>0.0003854054849922591</v>
       </c>
       <c r="T14">
-        <v>0.0008790493821614956</v>
+        <v>0.0003854054849922591</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.5363690000000001</v>
+        <v>0.234537</v>
       </c>
       <c r="H15">
-        <v>1.609107</v>
+        <v>0.7036110000000001</v>
       </c>
       <c r="I15">
-        <v>0.0008874178563878008</v>
+        <v>0.0003895634683858467</v>
       </c>
       <c r="J15">
-        <v>0.0008874178563878007</v>
+        <v>0.0003895634683858468</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>0.1289146666666666</v>
+        <v>0.401961</v>
       </c>
       <c r="N15">
-        <v>0.386744</v>
+        <v>1.205883</v>
       </c>
       <c r="O15">
-        <v>0.00362431096375152</v>
+        <v>0.008956103083191794</v>
       </c>
       <c r="P15">
-        <v>0.00362431096375152</v>
+        <v>0.008956103083191792</v>
       </c>
       <c r="Q15">
-        <v>0.06914583084533334</v>
+        <v>0.09427472705700002</v>
       </c>
       <c r="R15">
-        <v>0.6223124776080001</v>
+        <v>0.8484725435130002</v>
       </c>
       <c r="S15">
-        <v>3.216278266335178E-06</v>
+        <v>3.488970580309371E-06</v>
       </c>
       <c r="T15">
-        <v>3.216278266335178E-06</v>
+        <v>3.48897058030937E-06</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.5363690000000001</v>
+        <v>0.234537</v>
       </c>
       <c r="H16">
-        <v>1.609107</v>
+        <v>0.7036110000000001</v>
       </c>
       <c r="I16">
-        <v>0.0008874178563878008</v>
+        <v>0.0003895634683858467</v>
       </c>
       <c r="J16">
-        <v>0.0008874178563878007</v>
+        <v>0.0003895634683858468</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.20651</v>
+        <v>0.07707633333333333</v>
       </c>
       <c r="N16">
-        <v>0.61953</v>
+        <v>0.231229</v>
       </c>
       <c r="O16">
-        <v>0.005805828587833242</v>
+        <v>0.00171733970859806</v>
       </c>
       <c r="P16">
-        <v>0.005805828587833243</v>
+        <v>0.00171733970859806</v>
       </c>
       <c r="Q16">
-        <v>0.11076556219</v>
+        <v>0.018077251991</v>
       </c>
       <c r="R16">
-        <v>0.9968900597100002</v>
+        <v>0.162695267919</v>
       </c>
       <c r="S16">
-        <v>5.152195959969988E-06</v>
+        <v>6.690128132781997E-07</v>
       </c>
       <c r="T16">
-        <v>5.152195959969988E-06</v>
+        <v>6.690128132781997E-07</v>
       </c>
     </row>
   </sheetData>
